--- a/data/trans_bre/P16B01-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16B01-Clase-trans_bre.xlsx
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-47,39; 2,19</t>
+          <t>-47,88; 2,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-28,81; 25,42</t>
+          <t>-27,52; 24,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,68; 41,51</t>
+          <t>-13,06; 44,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-57,2; 1,61</t>
+          <t>-57,93; 2,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-45,87; 60,42</t>
+          <t>-47,25; 60,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,9; 124,66</t>
+          <t>-23,12; 132,16</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-23,44; 31,9</t>
+          <t>-21,8; 31,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 46,9</t>
+          <t>-4,89; 44,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 46,94</t>
+          <t>0,7; 46,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-33,62; 84,29</t>
+          <t>-31,58; 84,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 120,82</t>
+          <t>-7,43; 112,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 137,62</t>
+          <t>0,91; 134,66</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-19,01; 32,67</t>
+          <t>-18,42; 31,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-32,44; 17,09</t>
+          <t>-32,51; 16,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-32,96; 25,02</t>
+          <t>-31,82; 25,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-22,12; 52,99</t>
+          <t>-23,5; 50,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-41,86; 24,49</t>
+          <t>-40,26; 24,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-46,12; 42,69</t>
+          <t>-44,06; 43,45</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-16,22; 12,81</t>
+          <t>-15,48; 12,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,65; 13,92</t>
+          <t>-10,97; 12,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-16,09; 15,53</t>
+          <t>-17,09; 16,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-19,54; 17,27</t>
+          <t>-18,02; 16,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-14,7; 20,08</t>
+          <t>-13,57; 18,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-23,83; 26,73</t>
+          <t>-24,67; 29,62</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-23,63; 14,85</t>
+          <t>-20,81; 15,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-27,5; 2,77</t>
+          <t>-26,93; 3,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-15,87; 19,33</t>
+          <t>-15,93; 21,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-25,75; 19,32</t>
+          <t>-23,5; 21,21</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-30,62; 3,38</t>
+          <t>-29,93; 3,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-19,45; 32,38</t>
+          <t>-19,67; 37,56</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-13,03; 38,27</t>
+          <t>-13,65; 37,47</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,79; 48,13</t>
+          <t>2,87; 45,64</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-7,3; 45,7</t>
+          <t>-7,18; 45,03</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-15,9; 95,43</t>
+          <t>-16,16; 95,44</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,72; 178,66</t>
+          <t>4,14; 156,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-11,15; 243,64</t>
+          <t>-12,4; 213,47</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,21; 6,17</t>
+          <t>-10,71; 6,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 9,42</t>
+          <t>-4,93; 10,21</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 14,95</t>
+          <t>-2,79; 14,72</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-12,89; 8,8</t>
+          <t>-13,77; 9,62</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 14,41</t>
+          <t>-6,99; 15,4</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 27,79</t>
+          <t>-4,4; 26,8</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B01-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16B01-Clase-trans_bre.xlsx
@@ -994,7 +994,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
